--- a/biology/Botanique/Sion_(plante)/Sion_(plante).xlsx
+++ b/biology/Botanique/Sion_(plante)/Sion_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sium est un genre de plantes herbacées de la famille des Apiaceae.
 Dans ce genre il n'existe, en Europe, que deux espèces : le chervis (Sium sisarum) et la grande berle (Sium latifolium).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (9 février 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (9 février 2021) :
 Sium carsonii Durand ex A.Gray
 Sium latifolium L.
 Sium latijugum C.B.Clarke
@@ -552,10 +566,12 @@
           <t>Histoire du taxon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Sium a été créé en 1753 par Linné pour y classer diverses apiacées et il contenait à l'origine d'autres taxons. Par exemple l'Ache rampante, anciennement Sium repens, ou la Berle dressée, anciennement Sium angustifolium, etc.
-Sium a pour synonymes selon Plants of the World online (POWO)                (9 février 2021)[1] :
+Sium a pour synonymes selon Plants of the World online (POWO)                (9 février 2021) :
 Sion Adans.
 Sisarum Bubani
 Sisarum Mill.
